--- a/matplotlib-vs-searborn-vs-plotnine-demo.xlsx
+++ b/matplotlib-vs-searborn-vs-plotnine-demo.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09C6AC76-0EC4-4314-A628-78B04117CFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B4A9BA-426C-4E73-B366-679EC876090B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{C81D9857-43EE-4C96-89BA-F6C1D202AFC5}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{0939A648-B4A0-4FE7-A057-98014D70A6AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="matplotlib" sheetId="1" r:id="rId1"/>
+    <sheet name="seaborn" sheetId="2" r:id="rId2"/>
+    <sheet name="plotnine" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +35,212 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="6">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="1"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="3"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="4"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="5"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="6">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
+    </bk>
+    <bk>
+      <rc t="2" v="2"/>
+    </bk>
+    <bk>
+      <rc t="2" v="3"/>
+    </bk>
+    <bk>
+      <rc t="2" v="4"/>
+    </bk>
+    <bk>
+      <rc t="2" v="5"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>import matplotlib.pyplot as plt
+# Project timeline data
+tasks = ['Task A', 'Task B', 'Task C']
+start_dates = [0, 5, 8]  # Days since project start
+durations = [5, 3, 4]    # Task duration in days
+fig, ax = plt.subplots()
+ax.barh(tasks, durations, left=start_dates, color='skyblue')
+ax.set_xlabel('Days')
+ax.set_title('Project Timeline (Gantt Chart)')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>import matplotlib.pyplot as plt
+# Sales data
+months = ['Jan', 'Feb', 'Mar', 'Apr']
+sales = [300, 400, 350, 450]
+plt.plot(months, sales, color='#1f77b4', linewidth=2)
+plt.title('Monthly Sales Trend', fontsize=16, fontweight='bold')
+plt.xlabel('Month')
+plt.ylabel('Sales (in $K)')
+plt.annotate('Peak sales', xy=(3, 450), xytext=(2, 500),
+             arrowprops=dict(facecolor='black', arrowstyle='-&gt;'))
+plt.grid(True)
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>import seaborn as sns
+import pandas as pd
+# Sample data
+data = {'Marketing Spend': [100, 200, 150, 300],
+        'ROI': [10, 25, 20, 35],
+        'Customer Engagement': [40, 60, 55, 80]}
+df = pd.DataFrame(data)
+sns.heatmap(df.corr(), annot=True, cmap='coolwarm')
+plt.title('Correlation Heatmap')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code># Product sales data
+data = {'Product': ['A', 'A', 'A', 'B', 'B', 'B', 'C', 'C', 'C'],
+        'Sales': [100, 120, 110, 150, 170, 160, 130, 140, 135]}
+df = pd.DataFrame(data)
+sns.boxplot(x='Product', y='Sales', data=df, palette='Set2')
+plt.title('Sales Distribution by Product')
+plt.show()</code>
+    </pythonScript>
+    <pythonScript>
+      <code>from plotnine import ggplot, aes, geom_line, facet_wrap, labs, theme_classic
+import pandas as pd
+# Simplified data
+data = {'Region': ['Online', 'Online', 'In-store', 'In-store'],
+        'Month': ['Jan', 'Feb', 'Jan', 'Feb'],
+        'Sales': [200, 250, 300, 320]}
+df = pd.DataFrame(data)
+# Define the correct order for the months
+month_order = ['Jan', 'Feb']
+df['Month'] = pd.Categorical(df['Month'], categories=month_order, ordered=True)
+# Create the plot
+plot = (ggplot(df, aes(x='Month', y='Sales', group='Region', color='Region')) +
+        geom_line(size=1.2) +
+        facet_wrap('~Region', nrow=1) +
+        labs(title='Sales Trends: Online vs. In-store',
+             x='Month', y='Sales') +
+        theme_classic())
+print(plot)</code>
+    </pythonScript>
+    <pythonScript>
+      <code xml:space="preserve">from plotnine import ggplot, aes, geom_line, geom_point, labs, theme_minimal, theme, element_blank
+import pandas as pd
+# Simplified data
+data = {'Month': ['Jan', 'Feb'],
+        'Actual Sales': [300, 320],
+        'Predicted Sales': [290, 310]}
+df = pd.melt(pd.DataFrame(data), id_vars=['Month'], var_name='Type', value_name='Sales')
+# Define the correct order for the months
+month_order = ['Jan', 'Feb']
+df['Month'] = pd.Categorical(df['Month'], categories=month_order, ordered=True)
+# Create the plot
+plot = (ggplot(df, aes(x='Month', y='Sales', color='Type', group='Type')) +
+        geom_line(size=1.2) +
+        geom_point(size=4) +
+        labs(title='Actual vs Predicted Sales',
+             x='Month', y='Sales',
+             color='Sales Type') +
+        theme_minimal() +
+        theme(
+            panel_grid_major_x=element_blank(),  # Remove vertical gridlines
+            panel_grid_minor=element_blank(),   # Remove minor gridlines
+            panel_grid_major_y=element_blank(), # Remove horizontal gridlines
+            panel_background=element_blank(),  # Ensure a clean white background
+            axis_ticks_major_y=element_blank(), # Remove y-axis ticks
+            axis_ticks_major_x=element_blank(), # Remove x-axis ticks
+        ))
+print(plot)
+</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -83,6 +291,411 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>914410</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>233180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF1521A8-EAE3-E605-CAFF-DE690838D278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="matplotlib!A1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5212090" cy="4142240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>919398</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>128026</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3AB081-D85B-9B31-CBC1-F7B2158A82DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="matplotlib!A13"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5237018"/>
+          <a:ext cx="5221234" cy="4928626"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576082</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97A63E60-D568-060B-657F-19D375AD1853}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="seaborn!A1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4873762" cy="3959360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>923554</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>233180</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F2F0F6-98C4-D5AF-7E5F-4172B0F2B32F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="seaborn!A12"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4777740"/>
+          <a:ext cx="5221234" cy="4142240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>316242</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45729</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFB3F17-3135-D6E7-9990-310EA75BFE7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="plotnine!A1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1626870" y="0"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>300990</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>121932</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>346719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABC7722-79A9-0DA8-2D58-FD0337A57F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="plotnine!A14"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5513070"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
+  <rv s="0">
+    <v>0</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>1</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>2</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>3</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>4</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+  <rv s="0">
+    <v>5</v>
+    <v>9</v>
+    <v>Image generated by Python</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="Text" t="s"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+  <rel r:id="rId2"/>
+  <rel r:id="rId3"/>
+  <rel r:id="rId4"/>
+  <rel r:id="rId5"/>
+  <rel r:id="rId6"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,13 +1014,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D1FE04-D47D-4667-92EA-73B72B086AA4}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03576E5A-B6A8-469E-B755-9756F870D016}">
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="1.3">
+      <c r="A1" t="e" cm="1" vm="1">
+        <f t="array" ref="A1">_xlfn._xlws.PY(0,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="1.3">
+      <c r="A13" t="e" cm="1" vm="2">
+        <f t="array" ref="A13">_xlfn._xlws.PY(1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398EF7C2-BE22-4EF6-9692-8B91CE1102F5}">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="1.3">
+      <c r="A1" t="e" cm="1" vm="3">
+        <f t="array" ref="A1">_xlfn._xlws.PY(2,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="1.3">
+      <c r="A12" t="e" cm="1" vm="4">
+        <f t="array" ref="A12">_xlfn._xlws.PY(3,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510715B8-D011-4527-9384-ED90F89F6BE4}">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="1.3">
+      <c r="A1" t="e" cm="1" vm="5">
+        <f t="array" ref="A1">_xlfn._xlws.PY(4,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="1.3">
+      <c r="A14" t="e" cm="1" vm="6">
+        <f t="array" ref="A14">_xlfn._xlws.PY(5,0)</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/matplotlib-vs-searborn-vs-plotnine-demo.xlsx
+++ b/matplotlib-vs-searborn-vs-plotnine-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B4A9BA-426C-4E73-B366-679EC876090B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC55C16A-EB65-4DE5-BCDC-2BAD08CC604C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{0939A648-B4A0-4FE7-A057-98014D70A6AA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="2" xr2:uid="{0939A648-B4A0-4FE7-A057-98014D70A6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="matplotlib" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
-    <initialization>
+    <initialization userModified="1">
       <code xml:space="preserve">import numpy as np
 import pandas as pd
 import matplotlib.pyplot as plt
@@ -156,22 +156,53 @@
     </pythonScript>
     <pythonScript>
       <code>import matplotlib.pyplot as plt
+# Example: Corporate branding elements
+corporate_colors = {
+    'primary': '#0047AB',  # Corporate blue
+    'secondary': '#FF6F61',  # Corporate accent color
+    'grid': '#E5E5E5'  # Light gray for gridlines
+}
+font_family = 'Arial'  # Example: Corporate font
 # Sales data
 months = ['Jan', 'Feb', 'Mar', 'Apr']
 sales = [300, 400, 350, 450]
-plt.plot(months, sales, color='#1f77b4', linewidth=2)
-plt.title('Monthly Sales Trend', fontsize=16, fontweight='bold')
-plt.xlabel('Month')
-plt.ylabel('Sales (in $K)')
-plt.annotate('Peak sales', xy=(3, 450), xytext=(2, 500),
-             arrowprops=dict(facecolor='black', arrowstyle='-&gt;'))
-plt.grid(True)
+# Customize the chart with corporate branding
+plt.figure(figsize=(8, 5))
+plt.plot(
+    months, 
+    sales, 
+    color=corporate_colors['primary'], 
+    linewidth=2, 
+    marker='o', 
+    markersize=8, 
+    label='Monthly Sales'
+)
+plt.title(
+    'Monthly Sales Trend', 
+    fontsize=18, 
+    fontweight='bold', 
+    fontname=font_family, 
+    color=corporate_colors['primary']
+)
+plt.xlabel('Month', fontsize=12, fontname=font_family)
+plt.ylabel('Sales (in $K)', fontsize=12, fontname=font_family)
+plt.grid(color=corporate_colors['grid'], linestyle='--', linewidth=0.5)
+plt.annotate(
+    'Peak Sales', 
+    xy=(3, 450), 
+    xytext=(2, 500), 
+    fontsize=10, 
+    fontname=font_family, 
+    color=corporate_colors['secondary'], 
+    arrowprops=dict(facecolor=corporate_colors['secondary'], arrowstyle='-&gt;')
+)
+# Add legend and style adjustments
+plt.legend(fontsize=10, frameon=False)
+plt.tight_layout()
 plt.show()</code>
     </pythonScript>
     <pythonScript>
-      <code>import seaborn as sns
-import pandas as pd
-# Sample data
+      <code># Sample data
 data = {'Marketing Spend': [100, 200, 150, 300],
         'ROI': [10, 25, 20, 35],
         'Customer Engagement': [40, 60, 55, 80]}
@@ -181,63 +212,59 @@
 plt.show()</code>
     </pythonScript>
     <pythonScript>
-      <code># Product sales data
-data = {'Product': ['A', 'A', 'A', 'B', 'B', 'B', 'C', 'C', 'C'],
-        'Sales': [100, 120, 110, 150, 170, 160, 130, 140, 135]}
+      <code>import seaborn as sns
+import pandas as pd
+import matplotlib.pyplot as plt
+# Sample data
+data = {'Region': ['East', 'East', 'East', 'West', 'West', 'West', 'North', 'North', 'North'],
+        'Customer Type': ['New', 'Returning', 'VIP', 'New', 'Returning', 'VIP', 'New', 'Returning', 'VIP'],
+        'Sales': [200, 300, 450, 250, 320, 500, 180, 210, 400]}
 df = pd.DataFrame(data)
-sns.boxplot(x='Product', y='Sales', data=df, palette='Set2')
-plt.title('Sales Distribution by Product')
+# Create bar plots grouped by region
+g = sns.FacetGrid(df, col='Region', col_wrap=3, height=4, sharex=False, sharey=False)
+g.map(sns.barplot, 'Customer Type', 'Sales', order=['New', 'Returning', 'VIP'])
+g.set_titles('{col_name} Region')
+g.fig.suptitle('Sales Distribution by Customer Type Across Regions', y=1.02)
 plt.show()</code>
     </pythonScript>
     <pythonScript>
-      <code>from plotnine import ggplot, aes, geom_line, facet_wrap, labs, theme_classic
+      <code>from plotnine import ggplot, aes, geom_line, facet_wrap, labs, scale_x_date, theme, element_text
 import pandas as pd
-# Simplified data
-data = {'Region': ['Online', 'Online', 'In-store', 'In-store'],
-        'Month': ['Jan', 'Feb', 'Jan', 'Feb'],
-        'Sales': [200, 250, 300, 320]}
-df = pd.DataFrame(data)
-# Define the correct order for the months
-month_order = ['Jan', 'Feb']
-df['Month'] = pd.Categorical(df['Month'], categories=month_order, ordered=True)
-# Create the plot
-plot = (ggplot(df, aes(x='Month', y='Sales', group='Region', color='Region')) +
-        geom_line(size=1.2) +
-        facet_wrap('~Region', nrow=1) +
-        labs(title='Sales Trends: Online vs. In-store',
-             x='Month', y='Sales') +
-        theme_classic())
+# Sample data
+data = pd.DataFrame({
+    'Date': pd.date_range(start='2023-01-01', periods=12, freq='M').tolist() * 3,
+    'Region': ['North', 'South', 'East'] * 12,
+    'Sales': [200, 250, 220, 210, 300, 280, 260, 240, 250, 270, 290, 310] * 3
+})
+# Plot with adjusted X-axis and rotated labels
+plot = (
+    ggplot(data, aes('Date', 'Sales', color='Region')) +
+    geom_line() +
+    facet_wrap('~Region', ncol=1) +  # Arrange facets vertically for more X-axis space
+    scale_x_date(date_breaks='2 months', date_labels='%%b %%Y') +  # Adjust breaks and format
+    labs(title='Regional Sales Trends', x='Month', y='Sales') +
+    theme(
+        axis_text_x=element_text(rotation=45, ha='right'),  # Rotate X-axis labels
+        subplots_adjust={'wspace': 0.2, 'hspace': 0.3}  # Add spacing between facets
+    )
+)
 print(plot)</code>
     </pythonScript>
     <pythonScript>
-      <code xml:space="preserve">from plotnine import ggplot, aes, geom_line, geom_point, labs, theme_minimal, theme, element_blank
+      <code>from plotnine import ggplot, aes, geom_density
 import pandas as pd
-# Simplified data
-data = {'Month': ['Jan', 'Feb'],
-        'Actual Sales': [300, 320],
-        'Predicted Sales': [290, 310]}
-df = pd.melt(pd.DataFrame(data), id_vars=['Month'], var_name='Type', value_name='Sales')
-# Define the correct order for the months
-month_order = ['Jan', 'Feb']
-df['Month'] = pd.Categorical(df['Month'], categories=month_order, ordered=True)
-# Create the plot
-plot = (ggplot(df, aes(x='Month', y='Sales', color='Type', group='Type')) +
-        geom_line(size=1.2) +
-        geom_point(size=4) +
-        labs(title='Actual vs Predicted Sales',
-             x='Month', y='Sales',
-             color='Sales Type') +
-        theme_minimal() +
-        theme(
-            panel_grid_major_x=element_blank(),  # Remove vertical gridlines
-            panel_grid_minor=element_blank(),   # Remove minor gridlines
-            panel_grid_major_y=element_blank(), # Remove horizontal gridlines
-            panel_background=element_blank(),  # Ensure a clean white background
-            axis_ticks_major_y=element_blank(), # Remove y-axis ticks
-            axis_ticks_major_x=element_blank(), # Remove x-axis ticks
-        ))
-print(plot)
-</code>
+import numpy as np
+# Sample data
+data = pd.DataFrame({
+    'Sales': np.random.normal(250, 50, 200)
+})
+# Plot
+plot = (
+    ggplot(data, aes('Sales')) +
+    geom_density(fill='blue', alpha=0.5) +
+    labs(title='Sales Density Plot', x='Sales', y='Density')
+)
+print(plot)</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -297,14 +324,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>25976</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>914410</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>940387</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>233180</xdr:rowOff>
     </xdr:to>
@@ -334,8 +361,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="5212090" cy="4142240"/>
+          <a:off x="1472045" y="0"/>
+          <a:ext cx="5252615" cy="4129771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -347,22 +374,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1030431</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>129886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>919398</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>128026</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1354154</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>311727</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E3AB081-D85B-9B31-CBC1-F7B2158A82DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A035850A-60CC-7E81-0B60-022E69D82933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -383,8 +410,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5237018"/>
-          <a:ext cx="5221234" cy="4928626"/>
+          <a:off x="1030431" y="5325341"/>
+          <a:ext cx="9000132" cy="5377295"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -400,14 +427,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>576082</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885644</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>50300</xdr:rowOff>
     </xdr:to>
@@ -437,8 +464,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="4873762" cy="3959360"/>
+          <a:off x="1757362" y="0"/>
+          <a:ext cx="4919482" cy="3950788"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -450,22 +477,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>338138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>923554</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>528088</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>233180</xdr:rowOff>
+      <xdr:rowOff>214130</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
+        <xdr:cNvPr id="5" name="Picture 4" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34F2F0F6-98C4-D5AF-7E5F-4172B0F2B32F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C0D064-79B3-9F72-2B79-E5C7B9608DFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -486,8 +513,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4777740"/>
-          <a:ext cx="5221234" cy="4142240"/>
+          <a:off x="1238250" y="5105401"/>
+          <a:ext cx="10872238" cy="3776479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -504,22 +531,71 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>194310</xdr:colOff>
+      <xdr:colOff>528638</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>589610</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>398153</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Image generated by Python">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B347E748-D4BE-19DC-8622-6FDB8E314468}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+          <a:extLst>
+            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
+              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="plotnine!A11"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1976438" y="5110162"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>576262</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>316242</xdr:colOff>
+      <xdr:colOff>637234</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>45729</xdr:rowOff>
+      <xdr:rowOff>55254</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Image generated by Python">
+        <xdr:cNvPr id="7" name="Picture 6" descr="Image generated by Python">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFB3F17-3135-D6E7-9990-310EA75BFE7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA1CA11-09EB-1807-83E2-15EC9C9655F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -533,55 +609,6 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1626870" y="0"/>
-          <a:ext cx="5852172" cy="4389129"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>300990</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>121932</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>346719</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABC7722-79A9-0DA8-2D58-FD0337A57F58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="plotnine!A14"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
@@ -589,7 +616,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5513070"/>
+          <a:off x="2024062" y="0"/>
           <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1017,19 +1044,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03576E5A-B6A8-469E-B755-9756F870D016}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="1.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="1.05">
       <c r="A1" t="e" cm="1" vm="1">
         <f t="array" ref="A1">_xlfn._xlws.PY(0,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="1.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="1.05">
       <c r="A13" t="e" cm="1" vm="2">
         <f t="array" ref="A13">_xlfn._xlws.PY(1,0)</f>
         <v>#VALUE!</v>
@@ -1045,19 +1072,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398EF7C2-BE22-4EF6-9692-8B91CE1102F5}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="1.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="1.05">
       <c r="A1" t="e" cm="1" vm="3">
         <f t="array" ref="A1">_xlfn._xlws.PY(2,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="1.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="1.05">
       <c r="A12" t="e" cm="1" vm="4">
         <f t="array" ref="A12">_xlfn._xlws.PY(3,0)</f>
         <v>#VALUE!</v>
@@ -1071,21 +1098,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510715B8-D011-4527-9384-ED90F89F6BE4}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.200000000000003" x14ac:dyDescent="1.3"/>
+  <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="1.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="1.05">
       <c r="A1" t="e" cm="1" vm="5">
         <f t="array" ref="A1">_xlfn._xlws.PY(4,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="1.3">
-      <c r="A14" t="e" cm="1" vm="6">
-        <f t="array" ref="A14">_xlfn._xlws.PY(5,0)</f>
+    <row r="11" spans="1:1" x14ac:dyDescent="1.05">
+      <c r="A11" t="e" cm="1" vm="6">
+        <f t="array" ref="A11">_xlfn._xlws.PY(5,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>

--- a/matplotlib-vs-searborn-vs-plotnine-demo.xlsx
+++ b/matplotlib-vs-searborn-vs-plotnine-demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28330"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC55C16A-EB65-4DE5-BCDC-2BAD08CC604C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A967B4-4858-4323-B1B2-4C6B61C0E98F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="2" xr2:uid="{0939A648-B4A0-4FE7-A057-98014D70A6AA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{0939A648-B4A0-4FE7-A057-98014D70A6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="matplotlib" sheetId="1" r:id="rId1"/>
@@ -143,20 +143,17 @@
   </environmentDefinition>
   <pythonScripts>
     <pythonScript>
-      <code>import matplotlib.pyplot as plt
-# Project timeline data
+      <code># Project timeline data
 tasks = ['Task A', 'Task B', 'Task C']
 start_dates = [0, 5, 8]  # Days since project start
 durations = [5, 3, 4]    # Task duration in days
 fig, ax = plt.subplots()
 ax.barh(tasks, durations, left=start_dates, color='skyblue')
 ax.set_xlabel('Days')
-ax.set_title('Project Timeline (Gantt Chart)')
-plt.show()</code>
+ax.set_title('Project Timeline (Gantt Chart)')</code>
     </pythonScript>
     <pythonScript>
-      <code>import matplotlib.pyplot as plt
-# Example: Corporate branding elements
+      <code># Example: Corporate branding elements
 corporate_colors = {
     'primary': '#0047AB',  # Corporate blue
     'secondary': '#FF6F61',  # Corporate accent color
@@ -198,8 +195,7 @@
 )
 # Add legend and style adjustments
 plt.legend(fontsize=10, frameon=False)
-plt.tight_layout()
-plt.show()</code>
+plt.tight_layout()</code>
     </pythonScript>
     <pythonScript>
       <code># Sample data
@@ -208,8 +204,7 @@
         'Customer Engagement': [40, 60, 55, 80]}
 df = pd.DataFrame(data)
 sns.heatmap(df.corr(), annot=True, cmap='coolwarm')
-plt.title('Correlation Heatmap')
-plt.show()</code>
+plt.title('Correlation Heatmap')</code>
     </pythonScript>
     <pythonScript>
       <code>import seaborn as sns
@@ -229,26 +224,22 @@
     </pythonScript>
     <pythonScript>
       <code>from plotnine import ggplot, aes, geom_line, facet_wrap, labs, scale_x_date, theme, element_text
-import pandas as pd
 # Sample data
 data = pd.DataFrame({
     'Date': pd.date_range(start='2023-01-01', periods=12, freq='M').tolist() * 3,
     'Region': ['North', 'South', 'East'] * 12,
     'Sales': [200, 250, 220, 210, 300, 280, 260, 240, 250, 270, 290, 310] * 3
 })
-# Plot with adjusted X-axis and rotated labels
-plot = (
-    ggplot(data, aes('Date', 'Sales', color='Region')) +
-    geom_line() +
-    facet_wrap('~Region', ncol=1) +  # Arrange facets vertically for more X-axis space
-    scale_x_date(date_breaks='2 months', date_labels='%%b %%Y') +  # Adjust breaks and format
-    labs(title='Regional Sales Trends', x='Month', y='Sales') +
-    theme(
+# Plot data
+(ggplot(data, aes('Date', 'Sales', color='Region'))
+ + geom_line()
+ + facet_wrap('~Region', ncol=1)  # Arrange facets vertically for more X-axis space
+ + scale_x_date(date_breaks='2 months', date_labels='%%b %%Y')  # Adjust breaks and format
+ + labs(title='Regional Sales Trends', x='Month', y='Sales')
+ + theme(
         axis_text_x=element_text(rotation=45, ha='right'),  # Rotate X-axis labels
         subplots_adjust={'wspace': 0.2, 'hspace': 0.3}  # Add spacing between facets
-    )
-)
-print(plot)</code>
+    ))</code>
     </pythonScript>
     <pythonScript>
       <code>from plotnine import ggplot, aes, geom_density
@@ -259,12 +250,9 @@
     'Sales': np.random.normal(250, 50, 200)
 })
 # Plot
-plot = (
-    ggplot(data, aes('Sales')) +
-    geom_density(fill='blue', alpha=0.5) +
-    labs(title='Sales Density Plot', x='Sales', y='Density')
-)
-print(plot)</code>
+(ggplot(data, aes('Sales'))
+ + geom_density(fill='blue', alpha=0.5)
+ + labs(title='Sales Density Plot', x='Sales', y='Density'))</code>
     </pythonScript>
   </pythonScripts>
 </python>
@@ -1044,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03576E5A-B6A8-469E-B755-9756F870D016}">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1072,9 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398EF7C2-BE22-4EF6-9692-8B91CE1102F5}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView topLeftCell="A11" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <sheetData>
@@ -1100,9 +1086,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510715B8-D011-4527-9384-ED90F89F6BE4}">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.15" x14ac:dyDescent="1.05"/>
   <sheetData>
